--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81616.58632229449</v>
+        <v>15411394.94209209</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81616.58632229449</v>
+        <v>15411394.94209209</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229351.6106349644</v>
+        <v>27143446.99495526</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229351.6106349644</v>
+        <v>27143446.99495526</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1414917047.32582</v>
+        <v>30193606.17373991</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16710.14862377954</v>
+        <v>880041.47638467</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32082.39048148429</v>
+        <v>1505468.369065316</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47318.15345575851</v>
+        <v>2130895.261745962</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62151.68504880564</v>
+        <v>2756081.22439956</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76985.60281153626</v>
+        <v>3381324.138989876</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91819.84722242114</v>
+        <v>4006567.053580192</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106653.5894497359</v>
+        <v>4631809.96817051</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121487.8338606207</v>
+        <v>5257052.882760827</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136742.6044651135</v>
+        <v>5514618.482828912</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>152698.2843955038</v>
+        <v>5879013.859327171</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>168653.964325894</v>
+        <v>6243409.235825431</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184609.6442562843</v>
+        <v>6607804.612323686</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200565.3241866745</v>
+        <v>6972199.988821932</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216885.3587554129</v>
+        <v>7250527.045320181</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>233376.4622796046</v>
+        <v>7553681.501818429</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>132</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
